--- a/doc/CLP_Isolator.xlsx
+++ b/doc/CLP_Isolator.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Soeren\Documents\GitHub\AR2ISS\AR2ISS_Isolator\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B36505E9-BF6C-4F79-B9A1-29FF0DC58DE2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F1041D0-E7D1-4C54-B399-5637E4B834F1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21220" xr2:uid="{B24DA4A1-05E1-44BA-99A2-31373CF014A3}"/>
   </bookViews>
@@ -938,6 +938,18 @@
   </cellStyles>
   <dxfs count="5">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -960,18 +972,6 @@
           <bgColor rgb="FF70AD47"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1003,16 +1003,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F22252A9-88E0-4111-87E3-A8FB4AD410E9}" name="AR2ISS_Isolator_top_pos" displayName="AR2ISS_Isolator_top_pos" ref="A1:G235" tableType="queryTable" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F22252A9-88E0-4111-87E3-A8FB4AD410E9}" name="AR2ISS_Isolator_top_pos" displayName="AR2ISS_Isolator_top_pos" ref="A1:G235" tableType="queryTable" totalsRowShown="0" headerRowDxfId="4">
   <autoFilter ref="A1:G235" xr:uid="{E9972FC3-7AB9-4D5F-8904-348831334598}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{60678E30-4977-4F24-90E7-97BA1E23E3EA}" uniqueName="1" name="Designator" queryTableFieldId="1" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{0D7752D8-D7F3-4FA3-8C36-C41BDDBA1B61}" uniqueName="2" name="Val" queryTableFieldId="2" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{1C78537F-62FA-4B45-817A-29E1C2067FEF}" uniqueName="3" name="Package" queryTableFieldId="3" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{60678E30-4977-4F24-90E7-97BA1E23E3EA}" uniqueName="1" name="Designator" queryTableFieldId="1" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{0D7752D8-D7F3-4FA3-8C36-C41BDDBA1B61}" uniqueName="2" name="Val" queryTableFieldId="2" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{1C78537F-62FA-4B45-817A-29E1C2067FEF}" uniqueName="3" name="Package" queryTableFieldId="3" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{6C8AFD60-2B94-4FC4-AC67-2393CD5367FC}" uniqueName="4" name="Mid X" queryTableFieldId="4"/>
     <tableColumn id="5" xr3:uid="{316FFE45-22A5-43CF-9210-BF68D4F30FA4}" uniqueName="5" name="Mid Y" queryTableFieldId="5"/>
     <tableColumn id="6" xr3:uid="{52AAB9BD-E169-4C4A-8C9F-1A58B440317D}" uniqueName="6" name="Rotation" queryTableFieldId="6"/>
-    <tableColumn id="7" xr3:uid="{AC52B4EF-41C1-4C51-9C21-B0DCF72928AC}" uniqueName="7" name="Layer" queryTableFieldId="7" dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{AC52B4EF-41C1-4C51-9C21-B0DCF72928AC}" uniqueName="7" name="Layer" queryTableFieldId="7" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1317,13 +1317,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{486690CD-1463-444B-9518-31FE24A8E08D}">
   <dimension ref="A1:G235"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="F99" sqref="F99:F102"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O21" sqref="O21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.81640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.90625" customWidth="1"/>
     <col min="2" max="2" width="12.6328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="28.1796875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.81640625" bestFit="1" customWidth="1"/>
